--- a/dados/analises/2024/excel/03-ranking-uf-flex.xlsx
+++ b/dados/analises/2024/excel/03-ranking-uf-flex.xlsx
@@ -1326,21 +1326,21 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3">
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
       <c r="B4">
         <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
       <c r="B5">
         <v>100</v>
       </c>

--- a/dados/analises/2024/excel/03-ranking-uf-flex.xlsx
+++ b/dados/analises/2024/excel/03-ranking-uf-flex.xlsx
@@ -7,11 +7,11 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="uf-qtd" sheetId="1" r:id="rId1"/>
-    <sheet name="uf-tot-arrecad" sheetId="2" r:id="rId2"/>
-    <sheet name="uf-avg-arrecad" sheetId="3" r:id="rId3"/>
-    <sheet name="uf-max-arrecad" sheetId="4" r:id="rId4"/>
-    <sheet name="uf-tx-sucesso" sheetId="5" r:id="rId5"/>
+    <sheet name="qtd" sheetId="1" r:id="rId1"/>
+    <sheet name="tot-arrecad" sheetId="2" r:id="rId2"/>
+    <sheet name="avg-arrecad" sheetId="3" r:id="rId3"/>
+    <sheet name="max-arrecad" sheetId="4" r:id="rId4"/>
+    <sheet name="tx-sucesso" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -23,7 +23,7 @@
     <t>uf</t>
   </si>
   <si>
-    <t>qty</t>
+    <t>qtd</t>
   </si>
   <si>
     <t>SP</t>
@@ -50,12 +50,12 @@
     <t>DF</t>
   </si>
   <si>
+    <t>BA</t>
+  </si>
+  <si>
     <t>PB</t>
   </si>
   <si>
-    <t>BA</t>
-  </si>
-  <si>
     <t>SC</t>
   </si>
   <si>
@@ -71,28 +71,28 @@
     <t>RN</t>
   </si>
   <si>
+    <t>MS</t>
+  </si>
+  <si>
     <t>ES</t>
   </si>
   <si>
-    <t>MS</t>
-  </si>
-  <si>
     <t>AL</t>
   </si>
   <si>
+    <t>MA</t>
+  </si>
+  <si>
     <t>RO</t>
   </si>
   <si>
     <t>AM</t>
   </si>
   <si>
-    <t>MA</t>
+    <t>MT</t>
   </si>
   <si>
     <t>SE</t>
-  </si>
-  <si>
-    <t>MT</t>
   </si>
   <si>
     <t>tot_arrecadado</t>
@@ -752,7 +752,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>164690.479</v>
@@ -776,7 +776,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>107640.674</v>
@@ -808,7 +808,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>23543.497</v>
@@ -816,7 +816,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>23037.28</v>
@@ -832,7 +832,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20">
         <v>20141.949</v>
@@ -840,7 +840,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>10746.902</v>
@@ -848,7 +848,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22">
         <v>6251.101</v>
@@ -856,7 +856,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>5905.24</v>
@@ -864,7 +864,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>2126.771</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7">
         <v>10070.9745</v>
@@ -962,7 +962,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>6862.103291666666</v>
@@ -978,7 +978,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12">
         <v>5885.87425</v>
@@ -1026,7 +1026,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>4607.456</v>
@@ -1042,7 +1042,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B20">
         <v>3711.747379310345</v>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>2686.7255</v>
@@ -1058,7 +1058,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22">
         <v>2126.771</v>
@@ -1066,7 +1066,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>2083.700333333333</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B24">
         <v>1476.31</v>
@@ -1164,7 +1164,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>40905.511</v>
@@ -1172,7 +1172,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>39382.318</v>
@@ -1220,7 +1220,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16">
         <v>17570.771</v>
@@ -1236,7 +1236,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>10869.166</v>
@@ -1252,7 +1252,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20">
         <v>8763.925999999999</v>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>3938.449</v>
@@ -1268,7 +1268,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22">
         <v>3750.432</v>
@@ -1276,7 +1276,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>3468.865</v>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>2126.771</v>
@@ -1326,7 +1326,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>100</v>
@@ -1334,7 +1334,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -1371,7 +1371,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>96.7</v>
@@ -1451,7 +1451,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19">
         <v>80</v>
@@ -1459,7 +1459,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B20">
         <v>75</v>
@@ -1467,7 +1467,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21">
         <v>71.39999999999999</v>
@@ -1491,7 +1491,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B24">
         <v>57.09999999999999</v>
@@ -1499,7 +1499,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25">
         <v>50</v>

--- a/dados/analises/2024/excel/03-ranking-uf-flex.xlsx
+++ b/dados/analises/2024/excel/03-ranking-uf-flex.xlsx
@@ -50,12 +50,12 @@
     <t>DF</t>
   </si>
   <si>
+    <t>PB</t>
+  </si>
+  <si>
     <t>BA</t>
   </si>
   <si>
-    <t>PB</t>
-  </si>
-  <si>
     <t>SC</t>
   </si>
   <si>
@@ -71,28 +71,28 @@
     <t>RN</t>
   </si>
   <si>
+    <t>ES</t>
+  </si>
+  <si>
     <t>MS</t>
   </si>
   <si>
-    <t>ES</t>
-  </si>
-  <si>
     <t>AL</t>
   </si>
   <si>
+    <t>RO</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
     <t>MA</t>
   </si>
   <si>
-    <t>RO</t>
-  </si>
-  <si>
-    <t>AM</t>
+    <t>SE</t>
   </si>
   <si>
     <t>MT</t>
-  </si>
-  <si>
-    <t>SE</t>
   </si>
   <si>
     <t>tot_arrecadado</t>
@@ -752,7 +752,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>164690.479</v>
@@ -776,7 +776,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>107640.674</v>
@@ -808,7 +808,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>23543.497</v>
@@ -816,7 +816,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>23037.28</v>
@@ -832,7 +832,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20">
         <v>20141.949</v>
@@ -840,7 +840,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>10746.902</v>
@@ -848,7 +848,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>6251.101</v>
@@ -856,7 +856,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23">
         <v>5905.24</v>
@@ -864,7 +864,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>2126.771</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7">
         <v>10070.9745</v>
@@ -962,7 +962,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>6862.103291666666</v>
@@ -978,7 +978,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12">
         <v>5885.87425</v>
@@ -1026,7 +1026,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>4607.456</v>
@@ -1042,7 +1042,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20">
         <v>3711.747379310345</v>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>2686.7255</v>
@@ -1058,7 +1058,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22">
         <v>2126.771</v>
@@ -1066,7 +1066,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>2083.700333333333</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24">
         <v>1476.31</v>
@@ -1164,7 +1164,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>40905.511</v>
@@ -1172,7 +1172,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>39382.318</v>
@@ -1220,7 +1220,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16">
         <v>17570.771</v>
@@ -1236,7 +1236,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>10869.166</v>
@@ -1252,7 +1252,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>8763.925999999999</v>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>3938.449</v>
@@ -1268,7 +1268,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>3750.432</v>
@@ -1276,7 +1276,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23">
         <v>3468.865</v>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>2126.771</v>
@@ -1325,22 +1325,22 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
       <c r="B3">
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
       <c r="B5">
         <v>100</v>
       </c>
@@ -1371,7 +1371,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>96.7</v>
@@ -1451,7 +1451,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B19">
         <v>80</v>
@@ -1459,7 +1459,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20">
         <v>75</v>
@@ -1467,7 +1467,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B21">
         <v>71.39999999999999</v>
@@ -1491,7 +1491,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24">
         <v>57.09999999999999</v>
@@ -1499,7 +1499,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>50</v>

--- a/dados/analises/2024/excel/03-ranking-uf-flex.xlsx
+++ b/dados/analises/2024/excel/03-ranking-uf-flex.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="30">
   <si>
     <t>uf</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>tot_arrecadado</t>
+  </si>
+  <si>
+    <t>XX</t>
   </si>
   <si>
     <t>avg_arrecadado</t>
@@ -871,6 +874,9 @@
       </c>
     </row>
     <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
       <c r="B25">
         <v>961.052</v>
       </c>
@@ -893,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1081,6 +1087,9 @@
       </c>
     </row>
     <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
       <c r="B25">
         <v>961.052</v>
       </c>
@@ -1103,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1291,6 +1300,9 @@
       </c>
     </row>
     <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
       <c r="B25">
         <v>961.052</v>
       </c>
@@ -1313,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1325,13 +1337,16 @@
       </c>
     </row>
     <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
       <c r="B3">
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -1339,7 +1354,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B5">
         <v>100</v>

--- a/dados/analises/2024/excel/03-ranking-uf-flex.xlsx
+++ b/dados/analises/2024/excel/03-ranking-uf-flex.xlsx
@@ -50,12 +50,12 @@
     <t>DF</t>
   </si>
   <si>
+    <t>BA</t>
+  </si>
+  <si>
     <t>PB</t>
   </si>
   <si>
-    <t>BA</t>
-  </si>
-  <si>
     <t>SC</t>
   </si>
   <si>
@@ -71,22 +71,22 @@
     <t>RN</t>
   </si>
   <si>
+    <t>MS</t>
+  </si>
+  <si>
     <t>ES</t>
   </si>
   <si>
-    <t>MS</t>
-  </si>
-  <si>
     <t>AL</t>
   </si>
   <si>
+    <t>MA</t>
+  </si>
+  <si>
     <t>RO</t>
   </si>
   <si>
     <t>AM</t>
-  </si>
-  <si>
-    <t>MA</t>
   </si>
   <si>
     <t>SE</t>
@@ -755,7 +755,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>164690.479</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>107640.674</v>
@@ -811,7 +811,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>23543.497</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>23037.28</v>
@@ -843,7 +843,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>10746.902</v>
@@ -851,7 +851,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22">
         <v>6251.101</v>
@@ -859,7 +859,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>5905.24</v>
@@ -968,7 +968,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>6862.103291666666</v>
@@ -984,7 +984,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12">
         <v>5885.87425</v>
@@ -1032,7 +1032,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>4607.456</v>
@@ -1048,7 +1048,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B20">
         <v>3711.747379310345</v>
@@ -1056,7 +1056,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>2686.7255</v>
@@ -1072,7 +1072,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>2083.700333333333</v>
@@ -1080,7 +1080,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B24">
         <v>1476.31</v>
@@ -1173,7 +1173,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>40905.511</v>
@@ -1181,7 +1181,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>39382.318</v>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>10869.166</v>
@@ -1261,7 +1261,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20">
         <v>8763.925999999999</v>
@@ -1269,7 +1269,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>3938.449</v>
@@ -1277,7 +1277,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22">
         <v>3750.432</v>
@@ -1285,7 +1285,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>3468.865</v>
@@ -1330,7 +1330,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -1338,7 +1338,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>100</v>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -1386,7 +1386,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>96.7</v>
@@ -1466,7 +1466,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19">
         <v>80</v>
@@ -1474,7 +1474,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B20">
         <v>75</v>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21">
         <v>71.39999999999999</v>
@@ -1506,7 +1506,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B24">
         <v>57.09999999999999</v>

--- a/dados/analises/2024/excel/03-ranking-uf-flex.xlsx
+++ b/dados/analises/2024/excel/03-ranking-uf-flex.xlsx
@@ -50,12 +50,12 @@
     <t>DF</t>
   </si>
   <si>
+    <t>PB</t>
+  </si>
+  <si>
     <t>BA</t>
   </si>
   <si>
-    <t>PB</t>
-  </si>
-  <si>
     <t>SC</t>
   </si>
   <si>
@@ -80,19 +80,19 @@
     <t>AL</t>
   </si>
   <si>
+    <t>RO</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
     <t>MA</t>
   </si>
   <si>
-    <t>RO</t>
-  </si>
-  <si>
-    <t>AM</t>
+    <t>MT</t>
   </si>
   <si>
     <t>SE</t>
-  </si>
-  <si>
-    <t>MT</t>
   </si>
   <si>
     <t>tot_arrecadado</t>
@@ -755,7 +755,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>164690.479</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>107640.674</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20">
         <v>20141.949</v>
@@ -843,7 +843,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>10746.902</v>
@@ -851,7 +851,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>6251.101</v>
@@ -859,7 +859,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23">
         <v>5905.24</v>
@@ -867,7 +867,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>2126.771</v>
@@ -944,7 +944,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7">
         <v>10070.9745</v>
@@ -968,7 +968,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>6862.103291666666</v>
@@ -1048,7 +1048,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20">
         <v>3711.747379310345</v>
@@ -1056,7 +1056,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>2686.7255</v>
@@ -1064,7 +1064,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22">
         <v>2126.771</v>
@@ -1072,7 +1072,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>2083.700333333333</v>
@@ -1080,7 +1080,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24">
         <v>1476.31</v>
@@ -1173,7 +1173,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>40905.511</v>
@@ -1181,7 +1181,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>39382.318</v>
@@ -1229,7 +1229,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16">
         <v>17570.771</v>
@@ -1269,7 +1269,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>3938.449</v>
@@ -1277,7 +1277,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>3750.432</v>
@@ -1285,7 +1285,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23">
         <v>3468.865</v>
@@ -1293,7 +1293,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>2126.771</v>
@@ -1330,7 +1330,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -1338,7 +1338,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3">
         <v>100</v>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -1354,7 +1354,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>100</v>
@@ -1386,7 +1386,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>96.7</v>
@@ -1466,7 +1466,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B19">
         <v>80</v>
@@ -1474,7 +1474,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20">
         <v>75</v>
@@ -1514,7 +1514,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25">
         <v>50</v>

--- a/dados/analises/2024/excel/03-ranking-uf-flex.xlsx
+++ b/dados/analises/2024/excel/03-ranking-uf-flex.xlsx
@@ -50,12 +50,12 @@
     <t>DF</t>
   </si>
   <si>
+    <t>BA</t>
+  </si>
+  <si>
     <t>PB</t>
   </si>
   <si>
-    <t>BA</t>
-  </si>
-  <si>
     <t>SC</t>
   </si>
   <si>
@@ -80,13 +80,13 @@
     <t>AL</t>
   </si>
   <si>
+    <t>MA</t>
+  </si>
+  <si>
     <t>RO</t>
   </si>
   <si>
     <t>AM</t>
-  </si>
-  <si>
-    <t>MA</t>
   </si>
   <si>
     <t>MT</t>
@@ -755,7 +755,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>164690.479</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>107640.674</v>
@@ -843,7 +843,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>10746.902</v>
@@ -851,7 +851,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22">
         <v>6251.101</v>
@@ -859,7 +859,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>5905.24</v>
@@ -968,7 +968,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>6862.103291666666</v>
@@ -1048,7 +1048,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B20">
         <v>3711.747379310345</v>
@@ -1056,7 +1056,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>2686.7255</v>
@@ -1072,7 +1072,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>2083.700333333333</v>
@@ -1080,7 +1080,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B24">
         <v>1476.31</v>
@@ -1173,7 +1173,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>40905.511</v>
@@ -1181,7 +1181,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>39382.318</v>
@@ -1269,7 +1269,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>3938.449</v>
@@ -1277,7 +1277,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22">
         <v>3750.432</v>
@@ -1285,7 +1285,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>3468.865</v>
@@ -1330,7 +1330,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -1338,7 +1338,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>100</v>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -1354,7 +1354,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5">
         <v>100</v>
@@ -1386,7 +1386,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>96.7</v>
@@ -1466,7 +1466,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19">
         <v>80</v>
@@ -1474,7 +1474,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B20">
         <v>75</v>

--- a/dados/analises/2024/excel/03-ranking-uf-flex.xlsx
+++ b/dados/analises/2024/excel/03-ranking-uf-flex.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="30">
   <si>
     <t>uf</t>
   </si>
@@ -71,12 +71,12 @@
     <t>RN</t>
   </si>
   <si>
+    <t>ES</t>
+  </si>
+  <si>
     <t>MS</t>
   </si>
   <si>
-    <t>ES</t>
-  </si>
-  <si>
     <t>AL</t>
   </si>
   <si>
@@ -89,16 +89,16 @@
     <t>AM</t>
   </si>
   <si>
+    <t>SE</t>
+  </si>
+  <si>
     <t>MT</t>
   </si>
   <si>
-    <t>SE</t>
+    <t>XX</t>
   </si>
   <si>
     <t>tot_arrecadado</t>
-  </si>
-  <si>
-    <t>XX</t>
   </si>
   <si>
     <t>avg_arrecadado</t>
@@ -664,6 +664,9 @@
       </c>
     </row>
     <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
       <c r="B25">
         <v>1</v>
       </c>
@@ -686,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -811,7 +814,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>23543.497</v>
@@ -819,7 +822,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>23037.28</v>
@@ -835,7 +838,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20">
         <v>20141.949</v>
@@ -867,7 +870,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>2126.771</v>
@@ -875,7 +878,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>961.052</v>
@@ -944,7 +947,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7">
         <v>10070.9745</v>
@@ -984,7 +987,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12">
         <v>5885.87425</v>
@@ -1032,7 +1035,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>4607.456</v>
@@ -1064,7 +1067,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22">
         <v>2126.771</v>
@@ -1088,7 +1091,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>961.052</v>
@@ -1229,7 +1232,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16">
         <v>17570.771</v>
@@ -1245,7 +1248,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>10869.166</v>
@@ -1261,7 +1264,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>8763.925999999999</v>
@@ -1293,7 +1296,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>2126.771</v>
@@ -1301,7 +1304,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>961.052</v>
@@ -1338,7 +1341,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>100</v>
@@ -1346,7 +1349,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -1482,7 +1485,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B21">
         <v>71.39999999999999</v>
@@ -1506,7 +1509,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24">
         <v>57.09999999999999</v>
@@ -1514,7 +1517,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>50</v>

--- a/dados/analises/2024/excel/03-ranking-uf-flex.xlsx
+++ b/dados/analises/2024/excel/03-ranking-uf-flex.xlsx
@@ -50,12 +50,12 @@
     <t>DF</t>
   </si>
   <si>
+    <t>PB</t>
+  </si>
+  <si>
     <t>BA</t>
   </si>
   <si>
-    <t>PB</t>
-  </si>
-  <si>
     <t>SC</t>
   </si>
   <si>
@@ -80,13 +80,13 @@
     <t>AL</t>
   </si>
   <si>
+    <t>RO</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
     <t>MA</t>
-  </si>
-  <si>
-    <t>RO</t>
-  </si>
-  <si>
-    <t>AM</t>
   </si>
   <si>
     <t>SE</t>
@@ -758,7 +758,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>164690.479</v>
@@ -782,7 +782,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>107640.674</v>
@@ -846,7 +846,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>10746.902</v>
@@ -854,7 +854,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>6251.101</v>
@@ -862,7 +862,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23">
         <v>5905.24</v>
@@ -971,7 +971,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>6862.103291666666</v>
@@ -1051,7 +1051,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20">
         <v>3711.747379310345</v>
@@ -1059,7 +1059,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>2686.7255</v>
@@ -1075,7 +1075,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>2083.700333333333</v>
@@ -1083,7 +1083,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24">
         <v>1476.31</v>
@@ -1176,7 +1176,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>40905.511</v>
@@ -1184,7 +1184,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>39382.318</v>
@@ -1272,7 +1272,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>3938.449</v>
@@ -1280,7 +1280,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>3750.432</v>
@@ -1288,7 +1288,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23">
         <v>3468.865</v>
@@ -1341,7 +1341,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3">
         <v>100</v>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -1357,7 +1357,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B5">
         <v>100</v>
@@ -1389,7 +1389,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>96.7</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B19">
         <v>80</v>
@@ -1477,7 +1477,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20">
         <v>75</v>
